--- a/fuentes/contenidos/grado09/guion02/SolicitudGrafica_CN_09_02_CO_REC10.xlsx
+++ b/fuentes/contenidos/grado09/guion02/SolicitudGrafica_CN_09_02_CO_REC10.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magda\Desktop\2015\PLANETA\REC_CN_09_02_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
@@ -16,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="208">
   <si>
     <t>Fecha:</t>
   </si>
@@ -600,9 +605,6 @@
     <t>Ilustración</t>
   </si>
   <si>
-    <t>Mujer investigadora haciendo una PCR</t>
-  </si>
-  <si>
     <t>http://www.guiametabolica.org/noticia/gen-proteina-0</t>
   </si>
   <si>
@@ -618,9 +620,6 @@
     <t>Investigador en el laboratorio de alta seguridad</t>
   </si>
   <si>
-    <t>Moléculas de ADN</t>
-  </si>
-  <si>
     <t>Ilustrar el esquema</t>
   </si>
   <si>
@@ -643,6 +642,15 @@
   </si>
   <si>
     <t>Quitar el texto de arriba que dice DNA structure for the hud interfaces</t>
+  </si>
+  <si>
+    <t>Ilustrar lo que se presenta aquí</t>
+  </si>
+  <si>
+    <t>El fondo de la imagen puede ser blanco. Modificar los textos: DNA por ADN, RNA por ARN, Protein por Proteina. Los textos Transcription y Splicing desaparacen de la imagen.</t>
+  </si>
+  <si>
+    <t>Brazos de dos organismos: un humano y otro primate; en el centro se observa un esquema de la doble hélice del ADN.</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1786,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1858,7 +1866,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14001751" y="9410700"/>
+          <a:off x="14001751" y="10668000"/>
           <a:ext cx="1600200" cy="1781175"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2487792" cy="1692607"/>
@@ -1995,7 +2003,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14087476" y="7029450"/>
+          <a:off x="14087476" y="8134350"/>
           <a:ext cx="2057400" cy="1676400"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2679011" cy="2703003"/>
@@ -2351,6 +2359,107 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2193924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1246188</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Grupo 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14087474" y="3935413"/>
+          <a:ext cx="1812925" cy="1158875"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="2495550" cy="1523365"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="Imagen 27"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="33587" t="70009" r="61229" b="25803"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="752475" y="1143000"/>
+            <a:ext cx="838200" cy="380365"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+              <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="29" name="Imagen 28"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect l="28817" t="44045" r="55754" b="43392"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="2495550" cy="1143000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+              <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2382,7 +2491,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2390,6 +2499,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2423,7 +2546,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2431,6 +2554,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2464,7 +2601,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2472,6 +2609,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2505,7 +2656,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2513,6 +2664,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2546,7 +2711,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2554,6 +2719,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2587,7 +2766,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2595,6 +2774,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2628,7 +2821,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2636,6 +2829,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2971,9 +3178,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3296,7 +3503,7 @@
         <v/>
       </c>
       <c r="J10" s="63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -3339,7 +3546,7 @@
         <v/>
       </c>
       <c r="J11" s="64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -3382,7 +3589,7 @@
         <v/>
       </c>
       <c r="J12" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -3425,7 +3632,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -3433,20 +3640,20 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
       <c r="B14" s="62">
-        <v>80688913</v>
+        <v>106263554</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>155</v>
@@ -3468,9 +3675,11 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="64"/>
+        <v>205</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>206</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
@@ -3482,7 +3691,7 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3511,10 +3720,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J15" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="66" t="s">
         <v>194</v>
-      </c>
-      <c r="K15" s="66" t="s">
-        <v>195</v>
       </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
@@ -3556,10 +3765,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K16" s="66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
@@ -3572,7 +3781,7 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3602,27 +3811,27 @@
       </c>
       <c r="J17" s="66"/>
       <c r="K17" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
       <c r="B18" s="62">
-        <v>242111533</v>
+        <v>196836590</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>155</v>
@@ -3644,11 +3853,9 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="K18" s="66" t="s">
-        <v>200</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
@@ -3660,7 +3867,7 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3690,7 +3897,7 @@
       </c>
       <c r="J19" s="67"/>
       <c r="K19" s="66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
@@ -3732,7 +3939,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J20" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K20" s="66"/>
       <c r="O20" s="2" t="str">
